--- a/Especificação/user_stories.xlsx
+++ b/Especificação/user_stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff7d43294332babe/Engenharia de Software PUCPR/3º período/Experiência Criativa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff7d43294332babe/Engenharia de Software PUCPR/3º período/Experiência Criativa/Especificação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{ADBF58A5-BE83-40FF-94DD-81714730B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA12D19E-72D8-43C0-9F8F-889B3E119372}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{ADBF58A5-BE83-40FF-94DD-81714730B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1722CE8-5B23-4470-A76C-E09BA0F16F22}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8550" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{615AC7AD-C1AD-4ADF-9EE5-D6D22F37B24C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{615AC7AD-C1AD-4ADF-9EE5-D6D22F37B24C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>USER STORY 1</t>
   </si>
@@ -1194,7 +1194,191 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>o sistema retorna para o cadastro de vendas e posso alterar os campos</t>
+      <t>o registro da venda é armazenado no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ter vendas registradas com todos os dados necessários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confirmar venda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vendedor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confirmar venda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ENTÃO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o sistema mostra um preview da venda, com dados dos produtos e valor da compra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manter cadastro de vendas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manter cadastro de vendas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DADO QUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estou logado como vendedor e quero cadastrar uma nova venda</t>
     </r>
   </si>
   <si>
@@ -1217,7 +1401,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>o sistema mostra o preview da venda, com dados dos produtos e valor da compra</t>
+      <t>preencho todas as informações obrigatórias para cadastro e insiro um código de produto já existente no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QUANDO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>algum produto da compra não está mais disponível no estoque</t>
     </r>
   </si>
   <si>
@@ -1240,7 +1447,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seleciono a opção "voltar"</t>
+      <t xml:space="preserve"> realizei o cadastro da venda e seleciono a opção "confirmar"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QUANDO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>todos os produtos da compra estão disponíveis no estoque</t>
     </r>
   </si>
   <si>
@@ -1263,191 +1493,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>o registro da venda é armazenado no sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DADO QUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seleciono a opção "confirmar"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ter vendas registradas com todos os dados necessários</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>confirmar venda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COMO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vendedor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Confirmar venda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o sistema mostra um preview da venda, com dados dos produtos e valor da compra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manter cadastro de vendas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Manter cadastro de vendas</t>
+      <t>o sistema mostra uma mensagem informando qual produto está em falta e retorna para o cadastro de vendas</t>
     </r>
   </si>
 </sst>
@@ -1501,17 +1547,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1848,38 +1894,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1887,22 +1933,22 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -1910,55 +1956,55 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -1966,22 +2012,22 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -1989,59 +2035,59 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2049,22 +2095,22 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
@@ -2072,55 +2118,55 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2128,22 +2174,22 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C44" t="s">
@@ -2151,37 +2197,24 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
@@ -2197,6 +2230,19 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2206,167 +2252,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD81F79C-BDD2-4A0B-9DC5-2C1DA0550ABC}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
-        <v>64</v>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>63</v>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
-        <v>61</v>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,7 +2423,7 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2386,22 +2432,22 @@
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2409,22 +2455,22 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2432,15 +2478,15 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -2453,7 +2499,7 @@
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2462,67 +2508,88 @@
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B5:B7"/>
@@ -2530,27 +2597,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Especificação/user_stories.xlsx
+++ b/Especificação/user_stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff7d43294332babe/Engenharia de Software PUCPR/3º período/Experiência Criativa/Especificação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{ADBF58A5-BE83-40FF-94DD-81714730B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1722CE8-5B23-4470-A76C-E09BA0F16F22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA0ABCE-5EE2-41E1-87C2-C072B49A99BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{615AC7AD-C1AD-4ADF-9EE5-D6D22F37B24C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{615AC7AD-C1AD-4ADF-9EE5-D6D22F37B24C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>USER STORY 1</t>
   </si>
@@ -796,6 +796,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">PARA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ter estoque registrado com todos os produtos cadastrados e a quantidade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manter o estoque de produtos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> almoxarife</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manter estoque de produtos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ENTÃO: </t>
     </r>
     <r>
@@ -806,11 +898,300 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>o sistema mostra uma mensagem dizendo que o produto não foi encontrado, o código não é válido</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>não sou redirecionado para a área de estoque e aparece uma mensagem de erro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUANDO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tento realizar login com usuário e senha na área de estoque</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DADO QUE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sou almoxarife (verifica através do login)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consigo realizar login e sou redirecionado para a área de estoque</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DADO QUE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sou almoxarife (verifica através do login)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> editar a quantidade dos produtos cadastrados para manter o estoque atualizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">acessar área de estoque </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Acessar área de estoque </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ter vendas registradas com todos os dados necessários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vendedor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manter cadastro de vendas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manter cadastro de vendas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DADO QUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estou logado como vendedor e quero cadastrar uma nova venda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">QUANDO: </t>
     </r>
     <r>
@@ -821,7 +1202,114 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>informo o código do produto e a quantidade a ser adicionada no sistema</t>
+      <t>preencho todas as informações obrigatórias para cadastro e seleciono um produto já existente no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ENTÃO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o sistema mostra um preview da venda, com dados dos produtos, cliente envolvido, método de pagamento e quantidade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DADO QUE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não cadastro nenhum produto no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ENTÃO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o sistema mostra uma mensagem dizendo que é necessário selecionar um produto da lista, sendo que ela está vazia impossibilitando o cadastro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ENTÃO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consigo realizar o cadastro do item do estoque junto com a quantidade do produto disponivel para as vendas, armazenando esse registro no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QUANDO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seleciono o tipo do produto e escolho o tamanho na lista de tamanhos, insiro a cor e a quantidade a ser adicionada no sistema</t>
     </r>
   </si>
   <si>
@@ -844,30 +1332,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> preencho o campo "código do produto" com um código que não está armazenado no sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alteraçao na quantidade do produto é armazenado no sistema</t>
+      <t xml:space="preserve"> seleciono um produto na lista de produtos</t>
     </r>
   </si>
   <si>
@@ -890,507 +1355,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> preencho o campo "código do produto" com um código armazenado no sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PARA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ter estoque registrado com todos os produtos cadastrados e a quantidade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manter o estoque de produtos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COMO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> almoxarife</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Manter estoque de produtos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não sou redirecionado para a área de estoque e aparece uma mensagem de erro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QUANDO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tento realizar login com usuário e senha na área de estoque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DADO QUE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sou almoxarife (verifica através do login)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> consigo realizar login e sou redirecionado para a área de estoque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DADO QUE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sou almoxarife (verifica através do login)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> editar a quantidade dos produtos cadastrados para manter o estoque atualizado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">acessar área de estoque </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Acessar área de estoque </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o registro da venda é armazenado no sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ter vendas registradas com todos os dados necessários</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>confirmar venda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COMO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vendedor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Confirmar venda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o sistema mostra um preview da venda, com dados dos produtos e valor da compra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manter cadastro de vendas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Manter cadastro de vendas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DADO QUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> estou logado como vendedor e quero cadastrar uma nova venda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t xml:space="preserve"> não cadastro nenhum produto no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">QUANDO: </t>
     </r>
     <r>
@@ -1401,99 +1370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>preencho todas as informações obrigatórias para cadastro e insiro um código de produto já existente no sistema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QUANDO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>algum produto da compra não está mais disponível no estoque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DADO QUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> realizei o cadastro da venda e seleciono a opção "confirmar"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QUANDO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>todos os produtos da compra estão disponíveis no estoque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o sistema mostra uma mensagem informando qual produto está em falta e retorna para o cadastro de vendas</t>
+      <t>preencho todas as informações obrigatórias para cadastro no sistema</t>
     </r>
   </si>
 </sst>
@@ -1551,13 +1428,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1579,14 +1456,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1624,7 +1497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1730,7 +1603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1872,7 +1745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1886,335 +1759,348 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
@@ -2230,19 +2116,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2250,332 +2123,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD81F79C-BDD2-4A0B-9DC5-2C1DA0550ABC}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="112" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4" t="s">
-        <v>44</v>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="B26:C26"/>
@@ -2583,21 +2387,8 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>